--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value413.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value413.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213426408942566</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.924554784011947</v>
+        <v>3.714211225509644</v>
       </c>
       <c r="C1">
-        <v>3.064061622717392</v>
+        <v>2.008512496948242</v>
       </c>
       <c r="D1">
-        <v>2.02172656925412</v>
+        <v>1.573822736740112</v>
       </c>
       <c r="E1">
-        <v>0.5297479675558479</v>
+        <v>1.430870890617371</v>
       </c>
     </row>
   </sheetData>
